--- a/ONCHO/OEM/Nigeria/Oct 2023/ng_oncho_oem_3_rdtov16_202310.xlsx
+++ b/ONCHO/OEM/Nigeria/Oct 2023/ng_oncho_oem_3_rdtov16_202310.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\ONCHO\Impact Assessments\Nigeria\2023\oct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\ONCHO\OEM\Nigeria\Oct 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01D75CC-5A88-4343-ADB3-B0BBA55932A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EC7115-5E3E-4B52-AF36-09068739860D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="181">
   <si>
     <t>type</t>
   </si>
@@ -324,154 +324,247 @@
     <t>ELISA - Final decision</t>
   </si>
   <si>
-    <t>ng_oncho_stop_3_rdtov16_202310</t>
-  </si>
-  <si>
-    <t>(2023 Oct) - 3. ELISA Form</t>
-  </si>
-  <si>
-    <t>OYO</t>
-  </si>
-  <si>
-    <t>AFIJIO</t>
-  </si>
-  <si>
-    <t>ATIBA</t>
-  </si>
-  <si>
-    <t>ATISBO</t>
-  </si>
-  <si>
-    <t>IBARAPA EAST</t>
-  </si>
-  <si>
-    <t>IDO</t>
-  </si>
-  <si>
-    <t>IREPO</t>
-  </si>
-  <si>
-    <t>ISEYIN</t>
-  </si>
-  <si>
-    <t>ITASEWAJU</t>
-  </si>
-  <si>
-    <t>IWAJOWA</t>
-  </si>
-  <si>
-    <t>LAGELU</t>
-  </si>
-  <si>
-    <t>OGO OLUWA</t>
-  </si>
-  <si>
-    <t>OLORUNSOGO</t>
-  </si>
-  <si>
-    <t>OLUYOLE</t>
-  </si>
-  <si>
-    <t>ORELOPE</t>
-  </si>
-  <si>
-    <t>ORI IRE</t>
-  </si>
-  <si>
-    <t>OYO EAST</t>
-  </si>
-  <si>
-    <t>SAKI EAST</t>
-  </si>
-  <si>
-    <t>SAKI WEST</t>
-  </si>
-  <si>
-    <t>IROKO</t>
-  </si>
-  <si>
-    <t>IGBOBURO</t>
-  </si>
-  <si>
-    <t>AGO ARE</t>
-  </si>
-  <si>
-    <t>OFIKI</t>
-  </si>
-  <si>
-    <t>AKERORO</t>
-  </si>
-  <si>
-    <t>OPO-OGEDE</t>
-  </si>
-  <si>
-    <t>OMI ADIO</t>
-  </si>
-  <si>
-    <t>KISI</t>
-  </si>
-  <si>
-    <t>APENPE</t>
-  </si>
-  <si>
-    <t>ODO OGUN</t>
-  </si>
-  <si>
-    <t>BALELAYO</t>
-  </si>
-  <si>
-    <t>IPAPO</t>
-  </si>
-  <si>
-    <t>OKAKA</t>
-  </si>
-  <si>
-    <t>OKE-AMU</t>
-  </si>
-  <si>
-    <t>AFANYE</t>
-  </si>
-  <si>
-    <t>ITASA</t>
-  </si>
-  <si>
     <t>WASIMI</t>
   </si>
   <si>
-    <t>APATERE</t>
-  </si>
-  <si>
-    <t>IDI-ARABA</t>
-  </si>
-  <si>
-    <t>OTAMAKUN</t>
-  </si>
-  <si>
-    <t>IGBETTI</t>
-  </si>
-  <si>
-    <t>OLONDE</t>
-  </si>
-  <si>
-    <t>IGBOHO</t>
-  </si>
-  <si>
-    <t>ABUGAGA</t>
-  </si>
-  <si>
-    <t>ALADERE</t>
-  </si>
-  <si>
-    <t>ELEJA</t>
-  </si>
-  <si>
-    <t>SEPETERI</t>
-  </si>
-  <si>
-    <t>BUDI IGE</t>
-  </si>
-  <si>
-    <t>IGA IYERE</t>
+    <t>ng_oncho_oem_3_rdtov16_202310</t>
+  </si>
+  <si>
+    <t>LAGOS</t>
+  </si>
+  <si>
+    <t>AGEGE</t>
+  </si>
+  <si>
+    <t>AJEROMI/IFELODUN</t>
+  </si>
+  <si>
+    <t>ALIMOSHO</t>
+  </si>
+  <si>
+    <t>AMUWO ODOFIN</t>
+  </si>
+  <si>
+    <t>APAPA</t>
+  </si>
+  <si>
+    <t>BADAGRY</t>
+  </si>
+  <si>
+    <t>EPE</t>
+  </si>
+  <si>
+    <t>IBEJU LEKKI</t>
+  </si>
+  <si>
+    <t>IFAKO/IJAYE</t>
+  </si>
+  <si>
+    <t>IKEJA</t>
+  </si>
+  <si>
+    <t>LAGOS ISLAND</t>
+  </si>
+  <si>
+    <t>LAGOS MAINLAND</t>
+  </si>
+  <si>
+    <t>OJO</t>
+  </si>
+  <si>
+    <t>SHOMOLU</t>
+  </si>
+  <si>
+    <t>DOPEMU</t>
+  </si>
+  <si>
+    <t>ISALE OJA</t>
+  </si>
+  <si>
+    <t>MORIKAZ</t>
+  </si>
+  <si>
+    <t>MULERO</t>
+  </si>
+  <si>
+    <t>OKO OBA- ILOBU STREET</t>
+  </si>
+  <si>
+    <t>AMUKOKO</t>
+  </si>
+  <si>
+    <t>AWODI ORA</t>
+  </si>
+  <si>
+    <t>OLODI APAPA/ACHAKPO STREET</t>
+  </si>
+  <si>
+    <t>TEMIDIRE</t>
+  </si>
+  <si>
+    <t>TOLU</t>
+  </si>
+  <si>
+    <t>ABARANJE</t>
+  </si>
+  <si>
+    <t>AGBENAJE IKOLA</t>
+  </si>
+  <si>
+    <t>ALAGBADO</t>
+  </si>
+  <si>
+    <t>IJEDODO</t>
+  </si>
+  <si>
+    <t>IPAJA</t>
+  </si>
+  <si>
+    <t>6TH AVENUE FESTAC TOWN</t>
+  </si>
+  <si>
+    <t>IFESOWAPO ABULE EGUN</t>
+  </si>
+  <si>
+    <t>IREDE</t>
+  </si>
+  <si>
+    <t>IYAGBE</t>
+  </si>
+  <si>
+    <t>TEDI</t>
+  </si>
+  <si>
+    <t>BADIA</t>
+  </si>
+  <si>
+    <t>IJORAOLOYE</t>
+  </si>
+  <si>
+    <t>MARINE</t>
+  </si>
+  <si>
+    <t>GHAME</t>
+  </si>
+  <si>
+    <t>ITOHUN</t>
+  </si>
+  <si>
+    <t>MOBA</t>
+  </si>
+  <si>
+    <t>PASHI</t>
+  </si>
+  <si>
+    <t>ZONGO</t>
+  </si>
+  <si>
+    <t>EBUTE</t>
+  </si>
+  <si>
+    <t>IWOYE/ITOKIN</t>
+  </si>
+  <si>
+    <t>MOJODA</t>
+  </si>
+  <si>
+    <t>SEKUNGBA</t>
+  </si>
+  <si>
+    <t>BOJIGE</t>
+  </si>
+  <si>
+    <t>GODWILL ESTATE TOWN</t>
+  </si>
+  <si>
+    <t>IBAOLOJA</t>
+  </si>
+  <si>
+    <t>ISE</t>
+  </si>
+  <si>
+    <t>TIYE COMMUNITY</t>
+  </si>
+  <si>
+    <t>ADETIBA</t>
+  </si>
+  <si>
+    <t>IJU ISHAGA</t>
+  </si>
+  <si>
+    <t>ISAGA</t>
+  </si>
+  <si>
+    <t>OBAWOLE</t>
+  </si>
+  <si>
+    <t>OGBA OLUWOLE//IJAIYE OKERA</t>
+  </si>
+  <si>
+    <t>AGUDA</t>
+  </si>
+  <si>
+    <t>AINA STR/ADEBOWALE STR</t>
+  </si>
+  <si>
+    <t>OLUSOSUN</t>
+  </si>
+  <si>
+    <t>YAKOYO/OJODU</t>
+  </si>
+  <si>
+    <t>AGARAWU</t>
+  </si>
+  <si>
+    <t>BALOGUN</t>
+  </si>
+  <si>
+    <t>EBUTE ELEFUN/ZAPASS</t>
+  </si>
+  <si>
+    <t>FORESYTHE</t>
+  </si>
+  <si>
+    <t>KAKAWA</t>
+  </si>
+  <si>
+    <t>ABULE IJESHA</t>
+  </si>
+  <si>
+    <t>ADERUPOKO-IJEBU QUARTERS</t>
+  </si>
+  <si>
+    <t>ONIKE OYADIRAN</t>
+  </si>
+  <si>
+    <t>SALAMI</t>
+  </si>
+  <si>
+    <t>AGELETE</t>
+  </si>
+  <si>
+    <t>ANIBABA</t>
+  </si>
+  <si>
+    <t>ORISE IMUDE</t>
+  </si>
+  <si>
+    <t>OTO AWORI</t>
+  </si>
+  <si>
+    <t>HUMUANI</t>
+  </si>
+  <si>
+    <t>IGBARI/OJO SQUARE</t>
+  </si>
+  <si>
+    <t>PALMGROVE</t>
+  </si>
+  <si>
+    <t>PEDRO/BANKOLE STREET</t>
+  </si>
+  <si>
+    <t>(2023 Oct) - 3. ELISA Form (Lagos)</t>
   </si>
 </sst>
 </file>
@@ -1298,11 +1391,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:F169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD103"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1773,60 +1866,60 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" t="s">
-        <v>117</v>
-      </c>
-      <c r="D40" t="s">
-        <v>102</v>
-      </c>
-    </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C41" t="s">
-        <v>118</v>
-      </c>
-      <c r="D41" t="s">
-        <v>102</v>
+        <v>117</v>
+      </c>
+      <c r="E41" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
-      </c>
-      <c r="D42" t="s">
-        <v>102</v>
+        <v>118</v>
+      </c>
+      <c r="E42" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" t="s">
         <v>120</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>120</v>
       </c>
-      <c r="D43" t="s">
-        <v>102</v>
+      <c r="E44" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1868,7 +1961,7 @@
         <v>123</v>
       </c>
       <c r="E47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1882,7 +1975,7 @@
         <v>124</v>
       </c>
       <c r="E48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1896,7 +1989,7 @@
         <v>125</v>
       </c>
       <c r="E49" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1910,7 +2003,7 @@
         <v>126</v>
       </c>
       <c r="E50" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1924,7 +2017,7 @@
         <v>127</v>
       </c>
       <c r="E51" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1938,7 +2031,7 @@
         <v>128</v>
       </c>
       <c r="E52" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1952,7 +2045,7 @@
         <v>129</v>
       </c>
       <c r="E53" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1966,7 +2059,7 @@
         <v>130</v>
       </c>
       <c r="E54" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1980,7 +2073,7 @@
         <v>131</v>
       </c>
       <c r="E55" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1994,7 +2087,7 @@
         <v>132</v>
       </c>
       <c r="E56" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2008,7 +2101,7 @@
         <v>133</v>
       </c>
       <c r="E57" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2022,7 +2115,7 @@
         <v>134</v>
       </c>
       <c r="E58" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2036,7 +2129,7 @@
         <v>135</v>
       </c>
       <c r="E59" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2050,7 +2143,7 @@
         <v>136</v>
       </c>
       <c r="E60" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2064,7 +2157,7 @@
         <v>137</v>
       </c>
       <c r="E61" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2078,7 +2171,7 @@
         <v>138</v>
       </c>
       <c r="E62" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2092,7 +2185,7 @@
         <v>139</v>
       </c>
       <c r="E63" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2106,10 +2199,10 @@
         <v>140</v>
       </c>
       <c r="E64" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>56</v>
       </c>
@@ -2120,10 +2213,10 @@
         <v>141</v>
       </c>
       <c r="E65" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>56</v>
       </c>
@@ -2134,10 +2227,10 @@
         <v>142</v>
       </c>
       <c r="E66" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>56</v>
       </c>
@@ -2148,10 +2241,10 @@
         <v>143</v>
       </c>
       <c r="E67" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>56</v>
       </c>
@@ -2162,10 +2255,10 @@
         <v>144</v>
       </c>
       <c r="E68" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>56</v>
       </c>
@@ -2176,10 +2269,10 @@
         <v>145</v>
       </c>
       <c r="E69" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>56</v>
       </c>
@@ -2190,10 +2283,10 @@
         <v>146</v>
       </c>
       <c r="E70" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>56</v>
       </c>
@@ -2204,10 +2297,10 @@
         <v>147</v>
       </c>
       <c r="E71" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>56</v>
       </c>
@@ -2218,10 +2311,10 @@
         <v>148</v>
       </c>
       <c r="E72" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>56</v>
       </c>
@@ -2232,413 +2325,1337 @@
         <v>149</v>
       </c>
       <c r="E73" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>56</v>
+      </c>
+      <c r="B74" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" t="s">
+        <v>150</v>
+      </c>
+      <c r="E74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>88</v>
-      </c>
-      <c r="B75">
-        <v>101</v>
-      </c>
-      <c r="C75">
-        <v>101</v>
-      </c>
-      <c r="F75" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" t="s">
+        <v>151</v>
+      </c>
+      <c r="E75" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>88</v>
-      </c>
-      <c r="B76">
-        <v>102</v>
-      </c>
-      <c r="C76">
-        <v>102</v>
-      </c>
-      <c r="F76" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="B76" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" t="s">
+        <v>152</v>
+      </c>
+      <c r="E76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>88</v>
-      </c>
-      <c r="B77">
-        <v>103</v>
-      </c>
-      <c r="C77">
-        <v>103</v>
-      </c>
-      <c r="F77" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="B77" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" t="s">
+        <v>153</v>
+      </c>
+      <c r="E77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>88</v>
-      </c>
-      <c r="B78">
-        <v>104</v>
-      </c>
-      <c r="C78">
-        <v>104</v>
-      </c>
-      <c r="F78" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="B78" t="s">
+        <v>154</v>
+      </c>
+      <c r="C78" t="s">
+        <v>154</v>
+      </c>
+      <c r="E78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>88</v>
-      </c>
-      <c r="B79">
-        <v>105</v>
-      </c>
-      <c r="C79">
-        <v>105</v>
-      </c>
-      <c r="F79" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="B79" t="s">
+        <v>155</v>
+      </c>
+      <c r="C79" t="s">
+        <v>155</v>
+      </c>
+      <c r="E79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>88</v>
-      </c>
-      <c r="B80">
-        <v>106</v>
-      </c>
-      <c r="C80">
-        <v>106</v>
-      </c>
-      <c r="F80" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="B80" t="s">
+        <v>156</v>
+      </c>
+      <c r="C80" t="s">
+        <v>156</v>
+      </c>
+      <c r="E80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>88</v>
-      </c>
-      <c r="B81">
-        <v>107</v>
-      </c>
-      <c r="C81">
-        <v>107</v>
-      </c>
-      <c r="F81" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="B81" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" t="s">
+        <v>157</v>
+      </c>
+      <c r="E81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>88</v>
-      </c>
-      <c r="B82">
-        <v>108</v>
-      </c>
-      <c r="C82">
-        <v>108</v>
-      </c>
-      <c r="F82" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="B82" t="s">
+        <v>158</v>
+      </c>
+      <c r="C82" t="s">
+        <v>158</v>
+      </c>
+      <c r="E82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83">
-        <v>109</v>
-      </c>
-      <c r="C83">
-        <v>109</v>
-      </c>
-      <c r="F83" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="B83" t="s">
+        <v>159</v>
+      </c>
+      <c r="C83" t="s">
+        <v>159</v>
+      </c>
+      <c r="E83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>88</v>
-      </c>
-      <c r="B84">
-        <v>110</v>
-      </c>
-      <c r="C84">
-        <v>110</v>
-      </c>
-      <c r="F84" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="B84" t="s">
+        <v>160</v>
+      </c>
+      <c r="C84" t="s">
+        <v>160</v>
+      </c>
+      <c r="E84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>88</v>
-      </c>
-      <c r="B85">
-        <v>111</v>
-      </c>
-      <c r="C85">
-        <v>111</v>
-      </c>
-      <c r="F85" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="B85" t="s">
+        <v>161</v>
+      </c>
+      <c r="C85" t="s">
+        <v>161</v>
+      </c>
+      <c r="E85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86">
+        <v>56</v>
+      </c>
+      <c r="B86" t="s">
+        <v>100</v>
+      </c>
+      <c r="C86" t="s">
+        <v>100</v>
+      </c>
+      <c r="E86" t="s">
         <v>112</v>
       </c>
-      <c r="C86">
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>56</v>
+      </c>
+      <c r="B87" t="s">
+        <v>162</v>
+      </c>
+      <c r="C87" t="s">
+        <v>162</v>
+      </c>
+      <c r="E87" t="s">
         <v>112</v>
       </c>
-      <c r="F86" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" t="s">
-        <v>88</v>
-      </c>
-      <c r="B87">
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>56</v>
+      </c>
+      <c r="B88" t="s">
+        <v>163</v>
+      </c>
+      <c r="C88" t="s">
+        <v>163</v>
+      </c>
+      <c r="E88" t="s">
         <v>113</v>
       </c>
-      <c r="C87">
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89" t="s">
+        <v>164</v>
+      </c>
+      <c r="C89" t="s">
+        <v>164</v>
+      </c>
+      <c r="E89" t="s">
         <v>113</v>
       </c>
-      <c r="F87" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88">
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>56</v>
+      </c>
+      <c r="B90" t="s">
+        <v>165</v>
+      </c>
+      <c r="C90" t="s">
+        <v>165</v>
+      </c>
+      <c r="E90" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>56</v>
+      </c>
+      <c r="B91" t="s">
+        <v>166</v>
+      </c>
+      <c r="C91" t="s">
+        <v>166</v>
+      </c>
+      <c r="E91" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>56</v>
+      </c>
+      <c r="B92" t="s">
+        <v>167</v>
+      </c>
+      <c r="C92" t="s">
+        <v>167</v>
+      </c>
+      <c r="E92" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>56</v>
+      </c>
+      <c r="B93" t="s">
+        <v>168</v>
+      </c>
+      <c r="C93" t="s">
+        <v>168</v>
+      </c>
+      <c r="E93" t="s">
         <v>114</v>
       </c>
-      <c r="C88">
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>56</v>
+      </c>
+      <c r="B94" t="s">
+        <v>169</v>
+      </c>
+      <c r="C94" t="s">
+        <v>169</v>
+      </c>
+      <c r="E94" t="s">
         <v>114</v>
       </c>
-      <c r="F88" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89">
-        <v>115</v>
-      </c>
-      <c r="C89">
-        <v>115</v>
-      </c>
-      <c r="F89" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" t="s">
-        <v>88</v>
-      </c>
-      <c r="B90">
-        <v>116</v>
-      </c>
-      <c r="C90">
-        <v>116</v>
-      </c>
-      <c r="F90" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" t="s">
-        <v>88</v>
-      </c>
-      <c r="B91">
-        <v>117</v>
-      </c>
-      <c r="C91">
-        <v>117</v>
-      </c>
-      <c r="F91" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" t="s">
-        <v>88</v>
-      </c>
-      <c r="B92">
-        <v>118</v>
-      </c>
-      <c r="C92">
-        <v>118</v>
-      </c>
-      <c r="F92" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" t="s">
-        <v>88</v>
-      </c>
-      <c r="B93">
-        <v>119</v>
-      </c>
-      <c r="C93">
-        <v>119</v>
-      </c>
-      <c r="F93" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" t="s">
-        <v>88</v>
-      </c>
-      <c r="B94">
-        <v>120</v>
-      </c>
-      <c r="C94">
-        <v>120</v>
-      </c>
-      <c r="F94" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>88</v>
-      </c>
-      <c r="B95">
-        <v>121</v>
-      </c>
-      <c r="C95">
-        <v>121</v>
-      </c>
-      <c r="F95" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="B95" t="s">
+        <v>170</v>
+      </c>
+      <c r="C95" t="s">
+        <v>170</v>
+      </c>
+      <c r="E95" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>88</v>
-      </c>
-      <c r="B96">
-        <v>122</v>
-      </c>
-      <c r="C96">
-        <v>122</v>
-      </c>
-      <c r="F96" t="s">
-        <v>142</v>
+        <v>56</v>
+      </c>
+      <c r="B96" t="s">
+        <v>171</v>
+      </c>
+      <c r="C96" t="s">
+        <v>171</v>
+      </c>
+      <c r="E96" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>88</v>
-      </c>
-      <c r="B97">
-        <v>123</v>
-      </c>
-      <c r="C97">
-        <v>123</v>
-      </c>
-      <c r="F97" t="s">
-        <v>143</v>
+        <v>56</v>
+      </c>
+      <c r="B97" t="s">
+        <v>172</v>
+      </c>
+      <c r="C97" t="s">
+        <v>172</v>
+      </c>
+      <c r="E97" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>88</v>
-      </c>
-      <c r="B98">
-        <v>124</v>
-      </c>
-      <c r="C98">
-        <v>124</v>
-      </c>
-      <c r="F98" t="s">
-        <v>144</v>
+        <v>56</v>
+      </c>
+      <c r="B98" t="s">
+        <v>173</v>
+      </c>
+      <c r="C98" t="s">
+        <v>173</v>
+      </c>
+      <c r="E98" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>88</v>
-      </c>
-      <c r="B99">
-        <v>125</v>
-      </c>
-      <c r="C99">
-        <v>125</v>
-      </c>
-      <c r="F99" t="s">
-        <v>145</v>
+        <v>56</v>
+      </c>
+      <c r="B99" t="s">
+        <v>174</v>
+      </c>
+      <c r="C99" t="s">
+        <v>174</v>
+      </c>
+      <c r="E99" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>88</v>
-      </c>
-      <c r="B100">
-        <v>126</v>
-      </c>
-      <c r="C100">
-        <v>126</v>
-      </c>
-      <c r="F100" t="s">
-        <v>146</v>
+        <v>56</v>
+      </c>
+      <c r="B100" t="s">
+        <v>175</v>
+      </c>
+      <c r="C100" t="s">
+        <v>175</v>
+      </c>
+      <c r="E100" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>88</v>
-      </c>
-      <c r="B101">
-        <v>127</v>
-      </c>
-      <c r="C101">
-        <v>127</v>
-      </c>
-      <c r="F101" t="s">
-        <v>147</v>
+        <v>56</v>
+      </c>
+      <c r="B101" t="s">
+        <v>176</v>
+      </c>
+      <c r="C101" t="s">
+        <v>176</v>
+      </c>
+      <c r="E101" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>88</v>
-      </c>
-      <c r="B102">
-        <v>128</v>
-      </c>
-      <c r="C102">
-        <v>128</v>
-      </c>
-      <c r="F102" t="s">
-        <v>148</v>
+        <v>56</v>
+      </c>
+      <c r="B102" t="s">
+        <v>177</v>
+      </c>
+      <c r="C102" t="s">
+        <v>177</v>
+      </c>
+      <c r="E102" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>88</v>
-      </c>
-      <c r="B103">
+        <v>56</v>
+      </c>
+      <c r="B103" t="s">
+        <v>178</v>
+      </c>
+      <c r="C103" t="s">
+        <v>178</v>
+      </c>
+      <c r="E103" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>56</v>
+      </c>
+      <c r="B104" t="s">
+        <v>179</v>
+      </c>
+      <c r="C104" t="s">
+        <v>179</v>
+      </c>
+      <c r="E104" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>88</v>
+      </c>
+      <c r="B106">
+        <v>401</v>
+      </c>
+      <c r="C106">
+        <v>401</v>
+      </c>
+      <c r="F106" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>88</v>
+      </c>
+      <c r="B107">
+        <v>402</v>
+      </c>
+      <c r="C107">
+        <v>402</v>
+      </c>
+      <c r="F107" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>88</v>
+      </c>
+      <c r="B108">
+        <v>403</v>
+      </c>
+      <c r="C108">
+        <v>403</v>
+      </c>
+      <c r="F108" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>88</v>
+      </c>
+      <c r="B109">
+        <v>404</v>
+      </c>
+      <c r="C109">
+        <v>404</v>
+      </c>
+      <c r="F109" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>88</v>
+      </c>
+      <c r="B110">
+        <v>405</v>
+      </c>
+      <c r="C110">
+        <v>405</v>
+      </c>
+      <c r="F110" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>88</v>
+      </c>
+      <c r="B111">
+        <v>406</v>
+      </c>
+      <c r="C111">
+        <v>406</v>
+      </c>
+      <c r="F111" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>88</v>
+      </c>
+      <c r="B112">
+        <v>407</v>
+      </c>
+      <c r="C112">
+        <v>407</v>
+      </c>
+      <c r="F112" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>88</v>
+      </c>
+      <c r="B113">
+        <v>408</v>
+      </c>
+      <c r="C113">
+        <v>408</v>
+      </c>
+      <c r="F113" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>88</v>
+      </c>
+      <c r="B114">
+        <v>409</v>
+      </c>
+      <c r="C114">
+        <v>409</v>
+      </c>
+      <c r="F114" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>88</v>
+      </c>
+      <c r="B115">
+        <v>410</v>
+      </c>
+      <c r="C115">
+        <v>410</v>
+      </c>
+      <c r="F115" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>88</v>
+      </c>
+      <c r="B116">
+        <v>411</v>
+      </c>
+      <c r="C116">
+        <v>411</v>
+      </c>
+      <c r="F116" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>88</v>
+      </c>
+      <c r="B117">
+        <v>412</v>
+      </c>
+      <c r="C117">
+        <v>412</v>
+      </c>
+      <c r="F117" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>88</v>
+      </c>
+      <c r="B118">
+        <v>413</v>
+      </c>
+      <c r="C118">
+        <v>413</v>
+      </c>
+      <c r="F118" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>88</v>
+      </c>
+      <c r="B119">
+        <v>414</v>
+      </c>
+      <c r="C119">
+        <v>414</v>
+      </c>
+      <c r="F119" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>88</v>
+      </c>
+      <c r="B120">
+        <v>415</v>
+      </c>
+      <c r="C120">
+        <v>415</v>
+      </c>
+      <c r="F120" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>88</v>
+      </c>
+      <c r="B121">
+        <v>416</v>
+      </c>
+      <c r="C121">
+        <v>416</v>
+      </c>
+      <c r="F121" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>88</v>
+      </c>
+      <c r="B122">
+        <v>417</v>
+      </c>
+      <c r="C122">
+        <v>417</v>
+      </c>
+      <c r="F122" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>88</v>
+      </c>
+      <c r="B123">
+        <v>418</v>
+      </c>
+      <c r="C123">
+        <v>418</v>
+      </c>
+      <c r="F123" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>88</v>
+      </c>
+      <c r="B124">
+        <v>419</v>
+      </c>
+      <c r="C124">
+        <v>419</v>
+      </c>
+      <c r="F124" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>88</v>
+      </c>
+      <c r="B125">
+        <v>420</v>
+      </c>
+      <c r="C125">
+        <v>420</v>
+      </c>
+      <c r="F125" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>88</v>
+      </c>
+      <c r="B126">
+        <v>421</v>
+      </c>
+      <c r="C126">
+        <v>421</v>
+      </c>
+      <c r="F126" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>88</v>
+      </c>
+      <c r="B127">
+        <v>422</v>
+      </c>
+      <c r="C127">
+        <v>422</v>
+      </c>
+      <c r="F127" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>88</v>
+      </c>
+      <c r="B128">
+        <v>423</v>
+      </c>
+      <c r="C128">
+        <v>423</v>
+      </c>
+      <c r="F128" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>88</v>
+      </c>
+      <c r="B129">
+        <v>424</v>
+      </c>
+      <c r="C129">
+        <v>424</v>
+      </c>
+      <c r="F129" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>88</v>
+      </c>
+      <c r="B130">
+        <v>425</v>
+      </c>
+      <c r="C130">
+        <v>425</v>
+      </c>
+      <c r="F130" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>88</v>
+      </c>
+      <c r="B131">
+        <v>426</v>
+      </c>
+      <c r="C131">
+        <v>426</v>
+      </c>
+      <c r="F131" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>88</v>
+      </c>
+      <c r="B132">
+        <v>427</v>
+      </c>
+      <c r="C132">
+        <v>427</v>
+      </c>
+      <c r="F132" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>88</v>
+      </c>
+      <c r="B133">
+        <v>428</v>
+      </c>
+      <c r="C133">
+        <v>428</v>
+      </c>
+      <c r="F133" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>88</v>
+      </c>
+      <c r="B134">
+        <v>429</v>
+      </c>
+      <c r="C134">
+        <v>429</v>
+      </c>
+      <c r="F134" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>88</v>
+      </c>
+      <c r="B135">
+        <v>430</v>
+      </c>
+      <c r="C135">
+        <v>430</v>
+      </c>
+      <c r="F135" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>88</v>
+      </c>
+      <c r="B136">
+        <v>431</v>
+      </c>
+      <c r="C136">
+        <v>431</v>
+      </c>
+      <c r="F136" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>88</v>
+      </c>
+      <c r="B137">
+        <v>432</v>
+      </c>
+      <c r="C137">
+        <v>432</v>
+      </c>
+      <c r="F137" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>88</v>
+      </c>
+      <c r="B138">
+        <v>433</v>
+      </c>
+      <c r="C138">
+        <v>433</v>
+      </c>
+      <c r="F138" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>88</v>
+      </c>
+      <c r="B139">
+        <v>434</v>
+      </c>
+      <c r="C139">
+        <v>434</v>
+      </c>
+      <c r="F139" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>88</v>
+      </c>
+      <c r="B140">
+        <v>435</v>
+      </c>
+      <c r="C140">
+        <v>435</v>
+      </c>
+      <c r="F140" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>88</v>
+      </c>
+      <c r="B141">
+        <v>436</v>
+      </c>
+      <c r="C141">
+        <v>436</v>
+      </c>
+      <c r="F141" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>88</v>
+      </c>
+      <c r="B142">
+        <v>437</v>
+      </c>
+      <c r="C142">
+        <v>437</v>
+      </c>
+      <c r="F142" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>88</v>
+      </c>
+      <c r="B143">
+        <v>438</v>
+      </c>
+      <c r="C143">
+        <v>438</v>
+      </c>
+      <c r="F143" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>88</v>
+      </c>
+      <c r="B144">
+        <v>439</v>
+      </c>
+      <c r="C144">
+        <v>439</v>
+      </c>
+      <c r="F144" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>88</v>
+      </c>
+      <c r="B145">
+        <v>440</v>
+      </c>
+      <c r="C145">
+        <v>440</v>
+      </c>
+      <c r="F145" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>88</v>
+      </c>
+      <c r="B146">
+        <v>441</v>
+      </c>
+      <c r="C146">
+        <v>441</v>
+      </c>
+      <c r="F146" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>88</v>
+      </c>
+      <c r="B147">
+        <v>442</v>
+      </c>
+      <c r="C147">
+        <v>442</v>
+      </c>
+      <c r="F147" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>88</v>
+      </c>
+      <c r="B148">
+        <v>443</v>
+      </c>
+      <c r="C148">
+        <v>443</v>
+      </c>
+      <c r="F148" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>88</v>
+      </c>
+      <c r="B149">
+        <v>444</v>
+      </c>
+      <c r="C149">
+        <v>444</v>
+      </c>
+      <c r="F149" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>88</v>
+      </c>
+      <c r="B150">
+        <v>445</v>
+      </c>
+      <c r="C150">
+        <v>445</v>
+      </c>
+      <c r="F150" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>88</v>
+      </c>
+      <c r="B151">
+        <v>446</v>
+      </c>
+      <c r="C151">
+        <v>446</v>
+      </c>
+      <c r="F151" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>88</v>
+      </c>
+      <c r="B152">
+        <v>447</v>
+      </c>
+      <c r="C152">
+        <v>447</v>
+      </c>
+      <c r="F152" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>88</v>
+      </c>
+      <c r="B153">
+        <v>448</v>
+      </c>
+      <c r="C153">
+        <v>448</v>
+      </c>
+      <c r="F153" t="s">
         <v>129</v>
       </c>
-      <c r="C103">
-        <v>129</v>
-      </c>
-      <c r="F103" t="s">
-        <v>149</v>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>88</v>
+      </c>
+      <c r="B154">
+        <v>449</v>
+      </c>
+      <c r="C154">
+        <v>449</v>
+      </c>
+      <c r="F154" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>88</v>
+      </c>
+      <c r="B155">
+        <v>450</v>
+      </c>
+      <c r="C155">
+        <v>450</v>
+      </c>
+      <c r="F155" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>88</v>
+      </c>
+      <c r="B156">
+        <v>451</v>
+      </c>
+      <c r="C156">
+        <v>451</v>
+      </c>
+      <c r="F156" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>88</v>
+      </c>
+      <c r="B157">
+        <v>452</v>
+      </c>
+      <c r="C157">
+        <v>452</v>
+      </c>
+      <c r="F157" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>88</v>
+      </c>
+      <c r="B158">
+        <v>453</v>
+      </c>
+      <c r="C158">
+        <v>453</v>
+      </c>
+      <c r="F158" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>88</v>
+      </c>
+      <c r="B159">
+        <v>454</v>
+      </c>
+      <c r="C159">
+        <v>454</v>
+      </c>
+      <c r="F159" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>88</v>
+      </c>
+      <c r="B160">
+        <v>455</v>
+      </c>
+      <c r="C160">
+        <v>455</v>
+      </c>
+      <c r="F160" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
+        <v>88</v>
+      </c>
+      <c r="B161">
+        <v>456</v>
+      </c>
+      <c r="C161">
+        <v>456</v>
+      </c>
+      <c r="F161" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" t="s">
+        <v>88</v>
+      </c>
+      <c r="B162">
+        <v>457</v>
+      </c>
+      <c r="C162">
+        <v>457</v>
+      </c>
+      <c r="F162" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
+        <v>88</v>
+      </c>
+      <c r="B163">
+        <v>458</v>
+      </c>
+      <c r="C163">
+        <v>458</v>
+      </c>
+      <c r="F163" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" t="s">
+        <v>88</v>
+      </c>
+      <c r="B164">
+        <v>459</v>
+      </c>
+      <c r="C164">
+        <v>459</v>
+      </c>
+      <c r="F164" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" t="s">
+        <v>88</v>
+      </c>
+      <c r="B165">
+        <v>460</v>
+      </c>
+      <c r="C165">
+        <v>460</v>
+      </c>
+      <c r="F165" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>88</v>
+      </c>
+      <c r="B166">
+        <v>461</v>
+      </c>
+      <c r="C166">
+        <v>461</v>
+      </c>
+      <c r="F166" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" t="s">
+        <v>88</v>
+      </c>
+      <c r="B167">
+        <v>462</v>
+      </c>
+      <c r="C167">
+        <v>462</v>
+      </c>
+      <c r="F167" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" t="s">
+        <v>88</v>
+      </c>
+      <c r="B168">
+        <v>463</v>
+      </c>
+      <c r="C168">
+        <v>463</v>
+      </c>
+      <c r="F168" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" t="s">
+        <v>88</v>
+      </c>
+      <c r="B169">
+        <v>464</v>
+      </c>
+      <c r="C169">
+        <v>464</v>
+      </c>
+      <c r="F169" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2653,8 +3670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2676,10 +3693,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>92</v>

--- a/ONCHO/OEM/Nigeria/Oct 2023/ng_oncho_oem_3_rdtov16_202310.xlsx
+++ b/ONCHO/OEM/Nigeria/Oct 2023/ng_oncho_oem_3_rdtov16_202310.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\ONCHO\OEM\Nigeria\Oct 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EC7115-5E3E-4B52-AF36-09068739860D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA77A10-1B42-4D71-81A4-9491EE37967B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -327,9 +327,6 @@
     <t>WASIMI</t>
   </si>
   <si>
-    <t>ng_oncho_oem_3_rdtov16_202310</t>
-  </si>
-  <si>
     <t>LAGOS</t>
   </si>
   <si>
@@ -564,7 +561,10 @@
     <t>PEDRO/BANKOLE STREET</t>
   </si>
   <si>
-    <t>(2023 Oct) - 3. ELISA Form (Lagos)</t>
+    <t>ng_oncho_oem_3_rdtov16_202310_lagos</t>
+  </si>
+  <si>
+    <t>(2023 Oct) -  Lago - 3. ELISA Form</t>
   </si>
 </sst>
 </file>
@@ -1664,10 +1664,10 @@
         <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1675,13 +1675,13 @@
         <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1689,13 +1689,13 @@
         <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1703,13 +1703,13 @@
         <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1717,13 +1717,13 @@
         <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1731,13 +1731,13 @@
         <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1745,13 +1745,13 @@
         <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1759,13 +1759,13 @@
         <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1773,13 +1773,13 @@
         <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1787,13 +1787,13 @@
         <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1801,13 +1801,13 @@
         <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1815,13 +1815,13 @@
         <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1829,13 +1829,13 @@
         <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1843,13 +1843,13 @@
         <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1857,13 +1857,13 @@
         <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1871,13 +1871,13 @@
         <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1885,13 +1885,13 @@
         <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1899,13 +1899,13 @@
         <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1913,13 +1913,13 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1927,13 +1927,13 @@
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1941,13 +1941,13 @@
         <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1955,13 +1955,13 @@
         <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1969,13 +1969,13 @@
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1983,13 +1983,13 @@
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1997,13 +1997,13 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2011,13 +2011,13 @@
         <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2025,13 +2025,13 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2039,13 +2039,13 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2053,13 +2053,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2067,13 +2067,13 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2081,13 +2081,13 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2095,13 +2095,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2109,13 +2109,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2123,13 +2123,13 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2137,13 +2137,13 @@
         <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2151,13 +2151,13 @@
         <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2165,13 +2165,13 @@
         <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2179,13 +2179,13 @@
         <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2193,13 +2193,13 @@
         <v>56</v>
       </c>
       <c r="B64" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C64" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2207,13 +2207,13 @@
         <v>56</v>
       </c>
       <c r="B65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2221,13 +2221,13 @@
         <v>56</v>
       </c>
       <c r="B66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2235,13 +2235,13 @@
         <v>56</v>
       </c>
       <c r="B67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E67" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2249,13 +2249,13 @@
         <v>56</v>
       </c>
       <c r="B68" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C68" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2263,13 +2263,13 @@
         <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2277,13 +2277,13 @@
         <v>56</v>
       </c>
       <c r="B70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E70" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2291,13 +2291,13 @@
         <v>56</v>
       </c>
       <c r="B71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E71" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2305,13 +2305,13 @@
         <v>56</v>
       </c>
       <c r="B72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2319,13 +2319,13 @@
         <v>56</v>
       </c>
       <c r="B73" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C73" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2333,13 +2333,13 @@
         <v>56</v>
       </c>
       <c r="B74" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C74" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2347,13 +2347,13 @@
         <v>56</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C75" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E75" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2361,13 +2361,13 @@
         <v>56</v>
       </c>
       <c r="B76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2375,13 +2375,13 @@
         <v>56</v>
       </c>
       <c r="B77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2389,13 +2389,13 @@
         <v>56</v>
       </c>
       <c r="B78" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C78" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E78" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2403,13 +2403,13 @@
         <v>56</v>
       </c>
       <c r="B79" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C79" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E79" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2417,13 +2417,13 @@
         <v>56</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C80" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2431,13 +2431,13 @@
         <v>56</v>
       </c>
       <c r="B81" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C81" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E81" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2445,13 +2445,13 @@
         <v>56</v>
       </c>
       <c r="B82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E82" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2459,13 +2459,13 @@
         <v>56</v>
       </c>
       <c r="B83" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C83" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E83" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2473,13 +2473,13 @@
         <v>56</v>
       </c>
       <c r="B84" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C84" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E84" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2487,13 +2487,13 @@
         <v>56</v>
       </c>
       <c r="B85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E85" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2507,7 +2507,7 @@
         <v>100</v>
       </c>
       <c r="E86" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2515,13 +2515,13 @@
         <v>56</v>
       </c>
       <c r="B87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E87" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2529,13 +2529,13 @@
         <v>56</v>
       </c>
       <c r="B88" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C88" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E88" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2543,13 +2543,13 @@
         <v>56</v>
       </c>
       <c r="B89" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C89" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E89" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2557,13 +2557,13 @@
         <v>56</v>
       </c>
       <c r="B90" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C90" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E90" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2571,13 +2571,13 @@
         <v>56</v>
       </c>
       <c r="B91" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C91" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E91" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2585,13 +2585,13 @@
         <v>56</v>
       </c>
       <c r="B92" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C92" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E92" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2599,13 +2599,13 @@
         <v>56</v>
       </c>
       <c r="B93" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C93" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2613,13 +2613,13 @@
         <v>56</v>
       </c>
       <c r="B94" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C94" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2627,13 +2627,13 @@
         <v>56</v>
       </c>
       <c r="B95" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C95" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E95" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2641,13 +2641,13 @@
         <v>56</v>
       </c>
       <c r="B96" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C96" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E96" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2655,13 +2655,13 @@
         <v>56</v>
       </c>
       <c r="B97" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C97" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E97" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2669,13 +2669,13 @@
         <v>56</v>
       </c>
       <c r="B98" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C98" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E98" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2683,13 +2683,13 @@
         <v>56</v>
       </c>
       <c r="B99" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C99" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E99" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2697,13 +2697,13 @@
         <v>56</v>
       </c>
       <c r="B100" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C100" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E100" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2711,13 +2711,13 @@
         <v>56</v>
       </c>
       <c r="B101" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C101" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E101" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2725,13 +2725,13 @@
         <v>56</v>
       </c>
       <c r="B102" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C102" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E102" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2739,13 +2739,13 @@
         <v>56</v>
       </c>
       <c r="B103" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C103" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E103" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2753,13 +2753,13 @@
         <v>56</v>
       </c>
       <c r="B104" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C104" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E104" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2773,7 +2773,7 @@
         <v>401</v>
       </c>
       <c r="F106" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2787,7 +2787,7 @@
         <v>402</v>
       </c>
       <c r="F107" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2801,7 +2801,7 @@
         <v>403</v>
       </c>
       <c r="F108" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2815,7 +2815,7 @@
         <v>404</v>
       </c>
       <c r="F109" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2829,7 +2829,7 @@
         <v>405</v>
       </c>
       <c r="F110" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2843,7 +2843,7 @@
         <v>406</v>
       </c>
       <c r="F111" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2857,7 +2857,7 @@
         <v>407</v>
       </c>
       <c r="F112" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2871,7 +2871,7 @@
         <v>408</v>
       </c>
       <c r="F113" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2885,7 +2885,7 @@
         <v>409</v>
       </c>
       <c r="F114" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2899,7 +2899,7 @@
         <v>410</v>
       </c>
       <c r="F115" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2913,7 +2913,7 @@
         <v>411</v>
       </c>
       <c r="F116" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2927,7 +2927,7 @@
         <v>412</v>
       </c>
       <c r="F117" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2941,7 +2941,7 @@
         <v>413</v>
       </c>
       <c r="F118" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2955,7 +2955,7 @@
         <v>414</v>
       </c>
       <c r="F119" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2969,7 +2969,7 @@
         <v>415</v>
       </c>
       <c r="F120" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2983,7 +2983,7 @@
         <v>416</v>
       </c>
       <c r="F121" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2997,7 +2997,7 @@
         <v>417</v>
       </c>
       <c r="F122" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3011,7 +3011,7 @@
         <v>418</v>
       </c>
       <c r="F123" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3025,7 +3025,7 @@
         <v>419</v>
       </c>
       <c r="F124" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3039,7 +3039,7 @@
         <v>420</v>
       </c>
       <c r="F125" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3053,7 +3053,7 @@
         <v>421</v>
       </c>
       <c r="F126" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3067,7 +3067,7 @@
         <v>422</v>
       </c>
       <c r="F127" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3081,7 +3081,7 @@
         <v>423</v>
       </c>
       <c r="F128" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3095,7 +3095,7 @@
         <v>424</v>
       </c>
       <c r="F129" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3109,7 +3109,7 @@
         <v>425</v>
       </c>
       <c r="F130" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3123,7 +3123,7 @@
         <v>426</v>
       </c>
       <c r="F131" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3137,7 +3137,7 @@
         <v>427</v>
       </c>
       <c r="F132" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3151,7 +3151,7 @@
         <v>428</v>
       </c>
       <c r="F133" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3165,7 +3165,7 @@
         <v>429</v>
       </c>
       <c r="F134" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3179,7 +3179,7 @@
         <v>430</v>
       </c>
       <c r="F135" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3193,7 +3193,7 @@
         <v>431</v>
       </c>
       <c r="F136" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3207,7 +3207,7 @@
         <v>432</v>
       </c>
       <c r="F137" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3221,7 +3221,7 @@
         <v>433</v>
       </c>
       <c r="F138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3235,7 +3235,7 @@
         <v>434</v>
       </c>
       <c r="F139" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3249,7 +3249,7 @@
         <v>435</v>
       </c>
       <c r="F140" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3263,7 +3263,7 @@
         <v>436</v>
       </c>
       <c r="F141" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3277,7 +3277,7 @@
         <v>437</v>
       </c>
       <c r="F142" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3291,7 +3291,7 @@
         <v>438</v>
       </c>
       <c r="F143" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3305,7 +3305,7 @@
         <v>439</v>
       </c>
       <c r="F144" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3319,7 +3319,7 @@
         <v>440</v>
       </c>
       <c r="F145" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3333,7 +3333,7 @@
         <v>441</v>
       </c>
       <c r="F146" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3347,7 +3347,7 @@
         <v>442</v>
       </c>
       <c r="F147" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3361,7 +3361,7 @@
         <v>443</v>
       </c>
       <c r="F148" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3375,7 +3375,7 @@
         <v>444</v>
       </c>
       <c r="F149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3389,7 +3389,7 @@
         <v>445</v>
       </c>
       <c r="F150" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3403,7 +3403,7 @@
         <v>446</v>
       </c>
       <c r="F151" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3417,7 +3417,7 @@
         <v>447</v>
       </c>
       <c r="F152" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3431,7 +3431,7 @@
         <v>448</v>
       </c>
       <c r="F153" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3445,7 +3445,7 @@
         <v>449</v>
       </c>
       <c r="F154" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3459,7 +3459,7 @@
         <v>450</v>
       </c>
       <c r="F155" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3473,7 +3473,7 @@
         <v>451</v>
       </c>
       <c r="F156" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3487,7 +3487,7 @@
         <v>452</v>
       </c>
       <c r="F157" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3501,7 +3501,7 @@
         <v>453</v>
       </c>
       <c r="F158" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3515,7 +3515,7 @@
         <v>454</v>
       </c>
       <c r="F159" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3529,7 +3529,7 @@
         <v>455</v>
       </c>
       <c r="F160" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3543,7 +3543,7 @@
         <v>456</v>
       </c>
       <c r="F161" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3557,7 +3557,7 @@
         <v>457</v>
       </c>
       <c r="F162" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3571,7 +3571,7 @@
         <v>458</v>
       </c>
       <c r="F163" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3585,7 +3585,7 @@
         <v>459</v>
       </c>
       <c r="F164" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3599,7 +3599,7 @@
         <v>460</v>
       </c>
       <c r="F165" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3613,7 +3613,7 @@
         <v>461</v>
       </c>
       <c r="F166" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3627,7 +3627,7 @@
         <v>462</v>
       </c>
       <c r="F167" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3641,7 +3641,7 @@
         <v>463</v>
       </c>
       <c r="F168" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3696,7 +3696,7 @@
         <v>180</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>101</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
         <v>92</v>
